--- a/data/trans_dic/P27E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -556,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,8; 37,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,39; 43,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,56; 39,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,03; 29,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,95; 40,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,64; 34,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -656,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -679,24 +680,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,74; 42,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,0; 40,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,87; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,23 +730,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 32,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,29; 39,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,59; 35,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
@@ -753,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P27E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Estudios-trans_dic.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -98,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -111,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -555,149 +563,73 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -705,110 +637,83 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -820,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -898,20 +803,14 @@
           <t>n</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -921,263 +820,139 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="C5" s="6" t="inlineStr"/>
+      <c r="D5" s="6" t="inlineStr"/>
+      <c r="E5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr"/>
+      <c r="D6" s="6" t="inlineStr"/>
+      <c r="E6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
+      <c r="E10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
+      <c r="E11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>No Pertenece a Medición</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
+      <c r="E13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1190,20 +965,14 @@
           <t>n</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1213,60 +982,46 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+      <c r="D17" s="6" t="inlineStr"/>
+      <c r="E17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr"/>
+      <c r="D18" s="6" t="inlineStr"/>
+      <c r="E18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P27E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Estudios-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -53,6 +53,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -485,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,12 +529,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -515,33 +549,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -551,6 +621,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -563,9 +639,21 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.2294544741923252</v>
+      </c>
       <c r="D4" s="5" t="inlineStr"/>
       <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="n">
+        <v>0.2878027974559758</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
+        <v>0.263961556957417</v>
+      </c>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -574,9 +662,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.1447467440815902</v>
+      </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>0.2102759906398221</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="n">
+        <v>0.2064140630120489</v>
+      </c>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -585,9 +685,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.3202939971254412</v>
+      </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>0.3710974153829461</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="n">
+        <v>0.3304328568685692</v>
+      </c>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -600,9 +712,21 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.2422008177526867</v>
+      </c>
       <c r="D7" s="5" t="inlineStr"/>
       <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="n">
+        <v>0.3859930780471635</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="n">
+        <v>0.3142455332797962</v>
+      </c>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -611,9 +735,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.1921561775633463</v>
+      </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>0.3323045260286623</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="n">
+        <v>0.2812205532785172</v>
+      </c>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -622,9 +758,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.2971439303603506</v>
+      </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>0.4406802322211101</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="n">
+        <v>0.3574616494976325</v>
+      </c>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -637,9 +785,21 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.3231198417594845</v>
+      </c>
       <c r="D10" s="5" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="n">
+        <v>0.366638287407191</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
+        <v>0.3456833451485352</v>
+      </c>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -648,9 +808,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>0.2657829747018399</v>
+      </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>0.3163768759155591</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="n">
+        <v>0.3070946554216764</v>
+      </c>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -659,9 +831,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.3964170763369285</v>
+      </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>0.4221210905710777</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="n">
+        <v>0.3879673955346041</v>
+      </c>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -674,9 +858,21 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.2682328254251951</v>
+      </c>
       <c r="D13" s="5" t="inlineStr"/>
       <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="n">
+        <v>0.3552236350229818</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="n">
+        <v>0.3140678286185011</v>
+      </c>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -685,9 +881,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.2292281256454689</v>
+      </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>0.3186122459793894</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="n">
+        <v>0.2879647985530385</v>
+      </c>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -696,9 +904,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.3068976532416747</v>
+      </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>0.3891021014860657</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="n">
+        <v>0.3386831326497017</v>
+      </c>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -708,10 +928,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
@@ -725,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -741,12 +964,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -755,33 +984,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -791,6 +1056,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -804,12 +1075,30 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -820,9 +1109,21 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr"/>
+      <c r="C5" s="6" t="n">
+        <v>101978</v>
+      </c>
       <c r="D5" s="6" t="inlineStr"/>
       <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>185133</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>287111</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -831,9 +1132,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
+      <c r="C6" s="6" t="n">
+        <v>64331</v>
+      </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>135263</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>224516</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -842,9 +1155,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
+      <c r="C7" s="6" t="n">
+        <v>142350</v>
+      </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
+      <c r="F7" s="6" t="n">
+        <v>238713</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>359411</v>
+      </c>
+      <c r="J7" s="6" t="inlineStr"/>
+      <c r="K7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -858,12 +1183,30 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>240</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,9 +1217,21 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr"/>
+      <c r="C9" s="6" t="n">
+        <v>260559</v>
+      </c>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>416971</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>677529</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -885,9 +1240,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
+      <c r="C10" s="6" t="n">
+        <v>206721</v>
+      </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
+      <c r="F10" s="6" t="n">
+        <v>358973</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>606326</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -896,9 +1263,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
+      <c r="C11" s="6" t="n">
+        <v>319667</v>
+      </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>476047</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>770706</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -912,12 +1291,30 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>221</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,9 +1325,21 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr"/>
+      <c r="C13" s="6" t="n">
+        <v>266326</v>
+      </c>
       <c r="D13" s="6" t="inlineStr"/>
       <c r="E13" s="6" t="inlineStr"/>
+      <c r="F13" s="6" t="n">
+        <v>325393</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>591719</v>
+      </c>
+      <c r="J13" s="6" t="inlineStr"/>
+      <c r="K13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -939,9 +1348,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>219067</v>
+      </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>280785</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>525665</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
+      <c r="K14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -950,9 +1371,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>326740</v>
+      </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>374634</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>664098</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
+      <c r="K15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -966,12 +1399,30 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>346</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>542</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -982,9 +1433,21 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr"/>
+      <c r="C17" s="6" t="n">
+        <v>628863</v>
+      </c>
       <c r="D17" s="6" t="inlineStr"/>
       <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>927496</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>1556359</v>
+      </c>
+      <c r="J17" s="6" t="inlineStr"/>
+      <c r="K17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -993,9 +1456,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr"/>
+      <c r="C18" s="6" t="n">
+        <v>537418</v>
+      </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>831903</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>1427006</v>
+      </c>
+      <c r="J18" s="6" t="inlineStr"/>
+      <c r="K18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -1004,9 +1479,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr"/>
+      <c r="C19" s="6" t="n">
+        <v>719511</v>
+      </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
+      <c r="F19" s="6" t="n">
+        <v>1015953</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr"/>
+      <c r="I19" s="6" t="n">
+        <v>1678340</v>
+      </c>
+      <c r="J19" s="6" t="inlineStr"/>
+      <c r="K19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1016,10 +1503,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
